--- a/public/tables/users.xlsx
+++ b/public/tables/users.xlsx
@@ -1,146 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProgrammingAndProjects\chat-gpt-task\public\tables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E07430-2C81-484D-963F-CE99BB0A59B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Сумма</t>
-  </si>
-  <si>
-    <t>Дата регистрации</t>
-  </si>
-  <si>
-    <t>Баланс после бонуса</t>
-  </si>
-  <si>
-    <t>С учётом налога</t>
-  </si>
-  <si>
-    <t>Налог</t>
-  </si>
-  <si>
-    <t>Алексей</t>
-  </si>
-  <si>
-    <t>alex@example.com</t>
-  </si>
-  <si>
-    <t>2025-01-01</t>
-  </si>
-  <si>
-    <t>Мария</t>
-  </si>
-  <si>
-    <t>maria@example.com</t>
-  </si>
-  <si>
-    <t>2025-01-02</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>ivan@example.com</t>
-  </si>
-  <si>
-    <t>2025-01-03</t>
-  </si>
-  <si>
-    <t>Ольга</t>
-  </si>
-  <si>
-    <t>olga@example.com</t>
-  </si>
-  <si>
-    <t>2025-01-04</t>
-  </si>
-  <si>
-    <t>Сергей</t>
-  </si>
-  <si>
-    <t>sergey@example.com</t>
-  </si>
-  <si>
-    <t>2025-01-05</t>
-  </si>
-  <si>
-    <t>Екатерина</t>
-  </si>
-  <si>
-    <t>katya@example.com</t>
-  </si>
-  <si>
-    <t>2025-01-06</t>
-  </si>
-  <si>
-    <t>Дмитрий</t>
-  </si>
-  <si>
-    <t>dmitry@example.com</t>
-  </si>
-  <si>
-    <t>2025-01-07</t>
-  </si>
-  <si>
-    <t>Наталья</t>
-  </si>
-  <si>
-    <t>natalya@example.com</t>
-  </si>
-  <si>
-    <t>2025-01-08</t>
-  </si>
-  <si>
-    <t>Андрей</t>
-  </si>
-  <si>
-    <t>andrey@example.com</t>
-  </si>
-  <si>
-    <t>2025-01-09</t>
-  </si>
-  <si>
-    <t>Людмила</t>
-  </si>
-  <si>
-    <t>lyudmila@example.com</t>
-  </si>
-  <si>
-    <t>2025-01-10</t>
-  </si>
-  <si>
-    <t>Id</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,14 +72,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -509,59 +396,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Id</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Имя</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Email</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Сумма</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Дата регистрации</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Баланс после бонуса</v>
+      </c>
+      <c r="G1" t="str">
+        <v>С учётом налога</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Налог</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="B2" t="str">
+        <v>Михаил</v>
+      </c>
+      <c r="C2" t="str">
+        <v>misha1@gmail.com</v>
       </c>
       <c r="D2">
         <v>1200</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
+      <c r="E2" t="str">
+        <v>2025-01-01</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:F11" si="0">D2*1.1</f>
+        <f>D2*1.1</f>
         <v>1320</v>
       </c>
       <c r="G2">
@@ -572,24 +456,24 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
+      <c r="B3" t="str">
+        <v>Мария</v>
+      </c>
+      <c r="C3" t="str">
+        <v>maria@example.com</v>
       </c>
       <c r="D3">
         <v>950</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
+      <c r="E3" t="str">
+        <v>2025-01-02</v>
       </c>
       <c r="F3">
-        <f t="shared" si="0"/>
+        <f>D3*1.1</f>
         <v>1045</v>
       </c>
       <c r="G3">
@@ -597,49 +481,49 @@
         <v>104.5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
+      <c r="B4" t="str">
+        <v>Иван</v>
+      </c>
+      <c r="C4" t="str">
+        <v>ivan@example.com</v>
       </c>
       <c r="D4">
         <v>430</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
+      <c r="E4" t="str">
+        <v>2025-01-03</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
+        <f>D4*1.1</f>
         <v>473.00000000000006</v>
       </c>
       <c r="G4">
         <f>D4*1.1*I2</f>
-        <v>47.300000000000011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>47.30000000000001</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
+      <c r="B5" t="str">
+        <v>Ольга</v>
+      </c>
+      <c r="C5" t="str">
+        <v>olga@example.com</v>
       </c>
       <c r="D5">
         <v>1570</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
+      <c r="E5" t="str">
+        <v>2025-01-04</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
+        <f>D5*1.1</f>
         <v>1727.0000000000002</v>
       </c>
       <c r="G5">
@@ -647,24 +531,24 @@
         <v>172.70000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
+      <c r="B6" t="str">
+        <v>Сергей</v>
+      </c>
+      <c r="C6" t="str">
+        <v>sergey@example.com</v>
       </c>
       <c r="D6">
         <v>2200</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
+      <c r="E6" t="str">
+        <v>2025-01-05</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
+        <f>D6*1.1</f>
         <v>2420</v>
       </c>
       <c r="G6">
@@ -672,49 +556,49 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
+      <c r="B7" t="str">
+        <v>Екатерина</v>
+      </c>
+      <c r="C7" t="str">
+        <v>katya@example.com</v>
       </c>
       <c r="D7">
         <v>780</v>
       </c>
-      <c r="E7" t="s">
-        <v>24</v>
+      <c r="E7" t="str">
+        <v>2025-01-06</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>858.00000000000011</v>
+        <f>D7*1.1</f>
+        <v>858.0000000000001</v>
       </c>
       <c r="G7">
         <f>D7*1.1*I2</f>
-        <v>85.800000000000011</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>85.80000000000001</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
+      <c r="B8" t="str">
+        <v>Дмитрий</v>
+      </c>
+      <c r="C8" t="str">
+        <v>dmitry@example.com</v>
       </c>
       <c r="D8">
         <v>1330</v>
       </c>
-      <c r="E8" t="s">
-        <v>27</v>
+      <c r="E8" t="str">
+        <v>2025-01-07</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
+        <f>D8*1.1</f>
         <v>1463.0000000000002</v>
       </c>
       <c r="G8">
@@ -722,24 +606,24 @@
         <v>146.30000000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
+      <c r="B9" t="str">
+        <v>Наталья</v>
+      </c>
+      <c r="C9" t="str">
+        <v>natalya@example.com</v>
       </c>
       <c r="D9">
         <v>1900</v>
       </c>
-      <c r="E9" t="s">
-        <v>30</v>
+      <c r="E9" t="str">
+        <v>2025-01-08</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f>D9*1.1</f>
         <v>2090</v>
       </c>
       <c r="G9">
@@ -747,49 +631,49 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
+      <c r="B10" t="str">
+        <v>Андрей</v>
+      </c>
+      <c r="C10" t="str">
+        <v>andrey@example.com</v>
       </c>
       <c r="D10">
         <v>670</v>
       </c>
-      <c r="E10" t="s">
-        <v>33</v>
+      <c r="E10" t="str">
+        <v>2025-01-09</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>737.00000000000011</v>
+        <f>D10*1.1</f>
+        <v>737.0000000000001</v>
       </c>
       <c r="G10">
         <f>D10*1.1*I2</f>
-        <v>73.700000000000017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+        <v>73.70000000000002</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
+      <c r="B11" t="str">
+        <v>Людмила</v>
+      </c>
+      <c r="C11" t="str">
+        <v>lyudmila@example.com</v>
       </c>
       <c r="D11">
         <v>1200</v>
       </c>
-      <c r="E11" t="s">
-        <v>36</v>
+      <c r="E11" t="str">
+        <v>2025-01-10</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
+        <f>D11*1.1</f>
         <v>1320</v>
       </c>
       <c r="G11">
@@ -800,7 +684,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:I11 B1:I1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I11"/>
   </ignoredErrors>
 </worksheet>
 </file>